--- a/Steel & Tube - Auckland/26681-1/res.xlsx
+++ b/Steel & Tube - Auckland/26681-1/res.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Steel &amp; Tube - Auckland\26681-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FBB7F33-4696-4C2C-926C-66A10D8F342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D4CDAE-94C9-4B9F-B972-D03F19432841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1110" windowWidth="28965" windowHeight="18705"/>
+    <workbookView xWindow="3090" yWindow="555" windowWidth="28965" windowHeight="18705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -263,12 +263,18 @@
   </si>
   <si>
     <t>bc61ecdc-5b01-4fc1-93c5-6e60f833921d</t>
+  </si>
+  <si>
+    <t>folder-normal</t>
+  </si>
+  <si>
+    <t>Observations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +600,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -757,10 +769,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1115,8 +1128,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1899,6 +1912,14 @@
         <v>73</v>
       </c>
     </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
